--- a/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
+++ b/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
@@ -1557,6 +1557,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1586,48 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1944,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2013,14 +2013,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="90"/>
       <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2035,10 +2035,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="9" t="s">
         <v>99</v>
       </c>
@@ -2051,12 +2051,12 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
       <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2191,64 +2191,64 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:18" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
     </row>
     <row r="16" spans="1:18" s="8" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4" ht="70.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="83" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="105"/>

--- a/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
+++ b/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
@@ -1557,6 +1557,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,36 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1944,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2013,14 +2013,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="90"/>
+      <c r="D1" s="76"/>
       <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2035,10 +2035,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="9" t="s">
         <v>99</v>
       </c>
@@ -2051,12 +2051,12 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2191,64 +2191,64 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:18" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:18" s="8" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
     </row>
     <row r="19" spans="1:4" ht="70.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
@@ -2278,7 +2278,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2469,7 +2469,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="65" t="s">
         <v>16</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="69" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="105"/>

--- a/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
+++ b/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
@@ -173,9 +173,6 @@
     <t>起步自动释放</t>
   </si>
   <si>
-    <t>在行驶中，拉住EPB开关不放，EPB请求ESP进行四轮液压制动，减速度可达0.6g。</t>
-  </si>
-  <si>
     <t>自动驻车关闭</t>
   </si>
   <si>
@@ -670,6 +667,95 @@
   </si>
   <si>
     <t>可以通过不同CAN通讯指令来触发EPB进行不同程度的制动减速；定义轮速信号为失效情况，用EPB自带加速度传感器结合GPS或IMU来替代识别</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在行驶中，拉住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开关不放，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EPB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ESP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行四轮液压制动，减速度可达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.6g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1557,6 +1643,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1586,48 +1714,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1944,7 +2030,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1968,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1">
@@ -1976,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2013,14 +2099,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="90"/>
       <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2035,12 +2121,12 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="10"/>
       <c r="O2" s="8" t="s">
@@ -2051,12 +2137,12 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
       <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2265,7 @@
     </row>
     <row r="13" spans="1:18" s="8" customFormat="1" ht="75" customHeight="1">
       <c r="A13" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="16"/>
@@ -2191,64 +2277,64 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:18" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
     </row>
     <row r="16" spans="1:18" s="8" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4" ht="70.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
@@ -2272,13 +2358,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2299,7 +2385,7 @@
       <c r="B1" s="94"/>
       <c r="C1" s="95"/>
       <c r="D1" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -2308,32 +2394,32 @@
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="103"/>
       <c r="D2" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>103</v>
-      </c>
       <c r="H2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="36.75" customHeight="1">
@@ -2341,16 +2427,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>16</v>
@@ -2359,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30.75" customHeight="1">
@@ -2371,10 +2457,10 @@
         <v>48</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>17</v>
@@ -2383,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="39" customHeight="1">
@@ -2392,13 +2478,13 @@
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>16</v>
@@ -2414,13 +2500,13 @@
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>17</v>
@@ -2429,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" customHeight="1">
@@ -2438,13 +2524,13 @@
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>16</v>
@@ -2460,13 +2546,13 @@
       </c>
       <c r="B8" s="101"/>
       <c r="C8" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>17</v>
@@ -2475,7 +2561,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="44.25" customHeight="1">
@@ -2483,16 +2569,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>16</v>
@@ -2501,7 +2587,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="117.75" customHeight="1">
@@ -2513,10 +2599,10 @@
         <v>49</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>16</v>
@@ -2525,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="43.5" customHeight="1">
@@ -2534,13 +2620,13 @@
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>16</v>
@@ -2549,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="43.5" customHeight="1">
@@ -2558,13 +2644,13 @@
       </c>
       <c r="B12" s="101"/>
       <c r="C12" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>17</v>
@@ -2573,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="48" customHeight="1">
@@ -2581,16 +2667,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>17</v>
@@ -2599,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="60" customHeight="1">
@@ -2608,13 +2694,13 @@
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>16</v>
@@ -2623,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
@@ -2631,16 +2717,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>17</v>
@@ -2649,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="36" customHeight="1">
@@ -2658,13 +2744,13 @@
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>16</v>
@@ -2673,12 +2759,12 @@
         <v>16</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1">
       <c r="A17" s="96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="97"/>
       <c r="C17" s="97"/>
@@ -2691,13 +2777,13 @@
     <row r="18" spans="1:9" ht="36.75" customHeight="1">
       <c r="A18" s="37"/>
       <c r="B18" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="38" t="s">
@@ -2707,19 +2793,19 @@
         <v>16</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="44.25" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>112</v>
-      </c>
       <c r="D19" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="38" t="s">
@@ -2729,7 +2815,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
@@ -2744,97 +2830,66 @@
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
       <c r="A21" s="37"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="54"/>
       <c r="E21" s="64"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1">
+    <row r="22" spans="1:9" ht="64.5" customHeight="1">
       <c r="A22" s="37"/>
-      <c r="B22" s="100"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="55"/>
       <c r="D22" s="54"/>
       <c r="E22" s="64"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="H22" s="59"/>
+      <c r="I22" s="60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="39" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A24" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:H24"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G16 F18:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G16 F18:G23">
       <formula1>$Q$2:$R$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
+++ b/00硬件/03格陆博/EPB功能需求调查表（CP-EPB）-20180320.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Infor about Vehice" sheetId="2" r:id="rId2"/>
     <sheet name="Function Required" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Function Required'!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>客户车型调查表
 Customer Vehicle Information Questionary</t>
@@ -210,9 +213,6 @@
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>NO</t>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>客户需求
 （一）</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -756,6 +752,10 @@
       </rPr>
       <t>。</t>
     </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -944,32 +944,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="72"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1447,7 +1426,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,13 +1574,10 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,12 +1589,6 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1628,21 +1598,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1684,36 +1678,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2030,7 +1994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2054,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1">
@@ -2062,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2099,14 +2063,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="90"/>
+      <c r="D1" s="71"/>
       <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2121,12 +2085,12 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10"/>
       <c r="O2" s="8" t="s">
@@ -2137,12 +2101,12 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="8" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2264,8 +2228,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="8" customFormat="1" ht="75" customHeight="1">
-      <c r="A13" s="61" t="s">
-        <v>89</v>
+      <c r="A13" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="16"/>
@@ -2277,64 +2241,64 @@
       <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:18" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:18" s="8" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" ht="70.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
@@ -2357,14 +2321,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2373,67 +2338,68 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="21" customWidth="1"/>
     <col min="4" max="4" width="66.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="37.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1">
+    <row r="2" spans="1:18" ht="45" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>102</v>
+      <c r="F2" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="36.75" customHeight="1">
       <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>59</v>
@@ -2441,23 +2407,23 @@
       <c r="F3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30.75" customHeight="1">
       <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>62</v>
@@ -2465,23 +2431,23 @@
       <c r="F4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="39" customHeight="1">
       <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="56" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>62</v>
@@ -2489,7 +2455,7 @@
       <c r="F5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="35"/>
@@ -2498,8 +2464,8 @@
       <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="36" t="s">
@@ -2511,23 +2477,23 @@
       <c r="F6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" customHeight="1">
       <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>79</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>61</v>
@@ -2535,7 +2501,7 @@
       <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="33"/>
@@ -2544,12 +2510,12 @@
       <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>62</v>
@@ -2557,25 +2523,25 @@
       <c r="F8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>94</v>
+      <c r="H8" s="59" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="44.25" customHeight="1">
       <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>83</v>
+      <c r="B9" s="101" t="s">
+        <v>82</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>59</v>
@@ -2583,23 +2549,23 @@
       <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="117.75" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="112.5" customHeight="1">
       <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>91</v>
+      <c r="D10" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>59</v>
@@ -2607,23 +2573,23 @@
       <c r="F10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="43.5" customHeight="1">
       <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="58" t="s">
-        <v>80</v>
+      <c r="B11" s="95"/>
+      <c r="C11" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>61</v>
@@ -2631,23 +2597,23 @@
       <c r="F11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="43.5" customHeight="1">
       <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>92</v>
+      <c r="B12" s="96"/>
+      <c r="C12" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>61</v>
@@ -2655,25 +2621,25 @@
       <c r="F12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="48" customHeight="1">
       <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>109</v>
+      <c r="B13" s="101" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>62</v>
@@ -2681,23 +2647,23 @@
       <c r="F13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="60" customHeight="1">
       <c r="A14" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="101"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>59</v>
@@ -2705,25 +2671,25 @@
       <c r="F14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
       <c r="A15" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>93</v>
+      <c r="D15" s="60" t="s">
+        <v>92</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>62</v>
@@ -2731,19 +2697,19 @@
       <c r="F15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="36" customHeight="1">
       <c r="A16" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="36" t="s">
@@ -2755,35 +2721,35 @@
       <c r="F16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A17" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
-    </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A17" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
+    </row>
+    <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="D18" s="54" t="s">
         <v>106</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>108</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="38" t="s">
@@ -2793,19 +2759,19 @@
         <v>16</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="44.25" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="44.25" customHeight="1">
       <c r="A19" s="37"/>
-      <c r="B19" s="68" t="s">
-        <v>110</v>
+      <c r="B19" s="63" t="s">
+        <v>108</v>
       </c>
       <c r="C19" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>111</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>113</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="38" t="s">
@@ -2815,65 +2781,32 @@
         <v>16</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A24" s="104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="39" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A21" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2881,19 +2814,19 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G16 F18:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G16 F18:G20">
       <formula1>$Q$2:$R$2</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>